--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_21-33.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_21-33.xlsx
@@ -149,298 +149,322 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DERTRINA TAB</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11:1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>DOSTINEX 0.5 MG 2 TABS.</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>EMEREST 8MG 4ML/3AMP</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 500MG I.M. VIAL</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GASTROBIOTIC550MG 20 TAB</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>HEALSEC 20MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>HELIXBROM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>HERO VITAMIN DROPS</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>INOFOLIC CAPS</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>MECLIZIGO 25 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>MORNIGAG 10/10MG 30 DELAYED REL. F.C. TABS.</t>
+  </si>
+  <si>
+    <t>NAN PRE MILK 400 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARJI  LOTION</t>
+  </si>
+  <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PHARSERT 300SUPP</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>SAFE TOP SYRUP</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>SHOMA CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 30 TAB</t>
+  </si>
+  <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URINEX 36 CAP </t>
+  </si>
+  <si>
+    <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>VOLTAREN SR 100MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>7733:0</t>
+  </si>
+  <si>
+    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>ZINCODERM TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بادي سبلاش يارا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 5سم</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>بيبي جوي رقم 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>106:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-4:0</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
     <t>11:0</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DERTRINA TAB</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>11:1</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>DOSTINEX 0.5 MG 2 TABS.</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>EMEREST 8MG 4ML/3AMP</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 500MG I.M. VIAL</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:6</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GASTROBIOTIC550MG 20 TAB</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYPSUM  SYRUP</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>HEALSEC 20MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>HELIXBROM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>HERO VITAMIN DROPS</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>INOFOLIC CAPS</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>MECLIZIGO 25 MG 20 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>MORNIGAG 10/10MG 30 DELAYED REL. F.C. TABS.</t>
-  </si>
-  <si>
-    <t>NAN PRE MILK 400 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARJI  LOTION</t>
-  </si>
-  <si>
-    <t>OPLEX N PLUS 10 SUPP.</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 24 F.C. TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>PHARSERT 300SUPP</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>SAFE TOP SYRUP</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>SHOMA CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 30 TAB</t>
-  </si>
-  <si>
-    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
-  </si>
-  <si>
-    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URINEX 36 CAP </t>
-  </si>
-  <si>
-    <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>VOLTAREN SR 100MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>7733:0</t>
-  </si>
-  <si>
-    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>ZINCODERM TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بادي سبلاش يارا </t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 5سم</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>بيبي جوي رقم 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>-2:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>105:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-4:0</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
-    <t>فرش اسنان HASI</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -1638,11 +1662,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2672,13 +2696,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2690,7 +2714,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2698,17 +2722,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2716,7 +2740,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2724,17 +2748,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>22.079999999999998</v>
+        <v>31</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2742,7 +2766,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2750,17 +2774,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>29</v>
+        <v>45.079999999999998</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2768,7 +2792,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2776,17 +2800,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2794,7 +2818,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2802,13 +2826,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2820,7 +2844,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2828,13 +2852,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2846,7 +2870,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2860,11 +2884,11 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>7.0499999999999998</v>
+        <v>37</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2872,7 +2896,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2880,17 +2904,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>65</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2898,7 +2922,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2906,17 +2930,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2924,7 +2948,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2932,17 +2956,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2950,7 +2974,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2958,17 +2982,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2976,7 +3000,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2984,17 +3008,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3002,7 +3026,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3010,13 +3034,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -3028,7 +3052,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3036,17 +3060,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3054,7 +3078,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3062,17 +3086,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3080,7 +3104,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3088,17 +3112,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3106,7 +3130,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3114,17 +3138,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3132,7 +3156,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3140,17 +3164,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3158,7 +3182,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3166,17 +3190,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3184,7 +3208,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3192,17 +3216,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3210,7 +3234,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3218,17 +3242,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3236,7 +3260,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3244,17 +3268,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3262,7 +3286,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3270,17 +3294,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3288,7 +3312,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3296,17 +3320,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3314,7 +3338,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3322,17 +3346,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>7.5</v>
+        <v>85</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3340,7 +3364,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3348,17 +3372,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3366,7 +3390,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3374,17 +3398,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>140</v>
+        <v>7.5</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3392,7 +3416,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3406,11 +3430,11 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3418,7 +3442,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3426,17 +3450,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3444,7 +3468,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3452,17 +3476,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3470,7 +3494,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3478,13 +3502,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3496,7 +3520,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3504,17 +3528,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3522,7 +3546,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3530,17 +3554,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>137</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3548,7 +3572,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3556,17 +3580,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>140</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3574,7 +3598,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3582,13 +3606,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3608,17 +3632,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>9</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3626,7 +3650,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3634,17 +3658,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>9</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3652,7 +3676,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3660,13 +3684,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3678,7 +3702,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3686,13 +3710,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3704,7 +3728,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3712,13 +3736,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
@@ -3730,7 +3754,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3738,17 +3762,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3756,7 +3780,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3764,13 +3788,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3782,7 +3806,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3790,17 +3814,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3808,7 +3832,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3816,13 +3840,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
@@ -3834,7 +3858,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3842,51 +3866,129 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="112" ht="26.25" customHeight="1">
-      <c r="K112" s="10">
-        <v>8459.4799999999996</v>
-      </c>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="10"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="11">
-        <v>153</v>
-      </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c t="s" r="F113" s="12">
-        <v>154</v>
-      </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="13"/>
-      <c t="s" r="I113" s="14">
-        <v>155</v>
-      </c>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="6">
+        <v>109</v>
+      </c>
+      <c t="s" r="B112" s="7">
+        <v>157</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c t="s" r="H112" s="8">
+        <v>34</v>
+      </c>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="9">
+        <v>72</v>
+      </c>
+      <c r="M112" s="9"/>
+      <c t="s" r="N112" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" ht="25.5" customHeight="1">
+      <c r="A113" s="6">
+        <v>110</v>
+      </c>
+      <c t="s" r="B113" s="7">
+        <v>158</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c t="s" r="H113" s="8">
+        <v>9</v>
+      </c>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="9">
+        <v>70</v>
+      </c>
+      <c r="M113" s="9"/>
+      <c t="s" r="N113" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" ht="24.75" customHeight="1">
+      <c r="A114" s="6">
+        <v>111</v>
+      </c>
+      <c t="s" r="B114" s="7">
+        <v>159</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c t="s" r="H114" s="8">
+        <v>160</v>
+      </c>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="9">
+        <v>45</v>
+      </c>
+      <c r="M114" s="9"/>
+      <c t="s" r="N114" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" ht="26.25" customHeight="1">
+      <c r="K115" s="10">
+        <v>8618.4799999999996</v>
+      </c>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="11">
+        <v>161</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c t="s" r="F116" s="12">
+        <v>162</v>
+      </c>
+      <c r="G116" s="12"/>
+      <c r="H116" s="13"/>
+      <c t="s" r="I116" s="14">
+        <v>163</v>
+      </c>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="14"/>
+      <c r="M116" s="14"/>
+      <c r="N116" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="335">
+  <mergeCells count="344">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4218,10 +4320,19 @@
     <mergeCell ref="B111:G111"/>
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
-    <mergeCell ref="K112:N112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="I113:N113"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="K115:N115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="I116:N116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
